--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtutt\Documents\Code\PollingSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FCFB12-AC33-4DEF-8868-0BAC7A7EB917}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fragen" sheetId="1" r:id="rId1"/>
@@ -19,139 +20,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>Der Unterricht ist so gestaltet, dass ich ihm in der Regel gut folgen kann</t>
-  </si>
-  <si>
-    <t>Mir ist klar, welche Ziele im Unterricht erreicht werden sollen.</t>
-  </si>
-  <si>
-    <t>Der Unterricht ist berufsbezogen/praxisnah gestaltet.</t>
-  </si>
-  <si>
-    <t>Im Unterricht wird mir Gelegenheit zu eigenständigem Lernen und Arbeiten gegeben.</t>
-  </si>
-  <si>
-    <t>Im Unterricht ist eine klare Struktur erkennbar.</t>
-  </si>
-  <si>
-    <t>Meine Lehrkräfte sind immer gut auf den Unterricht vorbereitet.</t>
-  </si>
-  <si>
-    <t>Der Unterricht in meiner Klasse wird abwechslungsreich gestaltet.</t>
-  </si>
-  <si>
-    <t>Meine Lehrkräfte stellen angemessen hohe Leistungsanforderungen an meine Klasse.</t>
-  </si>
-  <si>
-    <t>Ich muss keine Angst haben, im Unterricht etwas falsch zu machen.</t>
-  </si>
-  <si>
-    <t>Im Unterricht wird der PC sinnvoll eingesetzt.</t>
-  </si>
-  <si>
-    <t>Die Bewertungsmaßstäbe zur Beurteilung der Leistungen wurden meiner Klasse erklärt.</t>
-  </si>
-  <si>
-    <t>Ich fühle mich von meinen Lehrkräften gerecht beurteilt.</t>
-  </si>
-  <si>
-    <t>Im Unterricht wird kaum Zeit für Nebensächlichkeiten verschwendet.</t>
-  </si>
-  <si>
-    <t>Meine Lehrkräfte haben ein hohes Maß an Fachwissen.</t>
-  </si>
-  <si>
-    <t>Ich respektiere meine Lehrkräfte.</t>
-  </si>
-  <si>
-    <t>Ich fühle mich von meinen Lehrkräften ernst genommen.</t>
-  </si>
-  <si>
-    <t>Meine Lehrkräfte erscheinen pünktlich zum Unterricht.</t>
-  </si>
-  <si>
-    <t>Meine Lehrkräfte tragen dazu bei, dass ich gerne lerne.</t>
-  </si>
-  <si>
-    <t>Ich lerne viel in meinem Unterricht.</t>
-  </si>
-  <si>
-    <t>Meine Lehrkräfte sind an meiner schulischen/beruflichen Weiterentwicklung interessiert.</t>
-  </si>
-  <si>
-    <t>Ich habe den Eindruck, dass sich die Lehrkräfte meiner Klasse miteinander abstimmen.</t>
-  </si>
-  <si>
-    <t>Meine Lehrkräfte reagieren angemessen auf Unterrichtsstörungen.</t>
-  </si>
-  <si>
-    <t>Meine Lehrkräfte fördern eine freundliche Atmosphäre in der Klasse.</t>
-  </si>
-  <si>
-    <t>Insgesamt bin ich mit unserem Unterricht zufrieden.</t>
-  </si>
-  <si>
-    <t>Im Schulgebäude und in den Klassenräumen fühle ich mich wohl.</t>
-  </si>
-  <si>
-    <t>Die technische Ausstattung unserer Schule (PCs, Labore, Werkstätten, Mediothek, Beamer, Projektoren u. a.) ist gut.</t>
-  </si>
-  <si>
-    <t>Ich habe Gelegenheit, in der Schule auch außerhalb des Unterrichts selbstständig zu lernen (Computer, Mediothek, Schülerarbeitsplätze).</t>
-  </si>
-  <si>
-    <t>Die Aufenthaltsmöglichkeiten außerhalb des Unterrichts finde ich an unserer Schule gut.</t>
-  </si>
-  <si>
-    <t>Die Verpflegungsmöglichkeiten (Cafeteria, Mensa) finde ich an unserer Schule gut.</t>
-  </si>
-  <si>
-    <t>Über das Beratungsangebot an unserer Schule bin ich informiert (Schullaufbahnberatung, Problemberatung).</t>
-  </si>
-  <si>
-    <t>Über organisatorische Angelegenheiten (Vertretungen, Prüfungen ...) werden wir rechtzeitig und ausreichend informiert.</t>
-  </si>
-  <si>
-    <t>Die Mitarbeiterinnen und Mitarbeiter des Sekretariats sind hilfsbereit und freundlich.</t>
-  </si>
-  <si>
-    <t>Der Hausmeister, der Schulassistent und weitere Mitarbeiter sind bei Bedarf ansprechbar und hilfsbereit.</t>
-  </si>
-  <si>
-    <t>Die Schule ist mit den von mir genutzten Verkehrsmitteln gut erreichbar.</t>
-  </si>
-  <si>
-    <t>Bei Bedarf habe ich die Möglichkeit, mich an Mitglieder der Schulleitung zu wenden.</t>
-  </si>
-  <si>
-    <t>Auf die Einhaltung der Verhaltensregeln wird innerhalb des Unterrichts konsequent geachtet.</t>
-  </si>
-  <si>
-    <t>Auf die Einhaltung der Verhaltensregeln wird außerhalb des Unterrichts konsequent geachtet.</t>
-  </si>
-  <si>
-    <t>An unserer Schule fühle ich mich sicher.</t>
-  </si>
-  <si>
-    <t>Insgesamt bin ich mit meiner Schule zufrieden.</t>
-  </si>
-  <si>
-    <t>In meiner Klasse arbeite ich gern und fühle mich wohl.</t>
-  </si>
-  <si>
-    <t>Auswahl und Qualität der in der Cafeteria angebotenen Produkte sind gut.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Question</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde ist die Lehrerin/der Lehrer freundlich und fair mit uns umgegangen.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde hat die Lehrerin/der Lehrer uns motiviert, sich am Unterricht zu beteiligen.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde war der Unterricht für uns interessant.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde hat sich die Klasse/Lerngruppe so verhalten, dass wir gut lernen konnten.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde hat die Lehrerin/der Lehrer dafür gesorgt, dass keine Zeit verschwendet wurde.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde haben wir intensiv am Unterrichtsthema gearbeitet.</t>
+  </si>
+  <si>
+    <t>n der vergangenen Unterrichtsstunde konnten wir die Aufgaben in der zur Verfügung stehenden Zeit lösen.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde haben wir einzeln oder mit einem Partner, in der Gruppe oder im Gespräch mit allen Schülerinnen und Schülern so gearbeitet, dass wir gut lernen konnten.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde wussten wir immer genau, was wir lernen sollten.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde war der Ablauf deutlich erkennbar, den die Lehrerin/der Lehrer für die Stunde vorgesehen hatte.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde konnten wir die Erklärungen der Lehrerin/des Lehrers gut verstehen.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde waren die Aufgaben für uns nicht zu einfach, man musste sich eine Menge Gedanken machen.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde haben wir etwas gelernt, das wir auch in anderen Fächern und/oder im Alltagsleben gut gebrauchen können.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde haben wir eine Aufgabe selbstständig gelöst bzw. uns Inhalte selbstständig erarbeitet.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde haben wir die Möglichkeiten zum selbstständigen Arbeiten gut genutzt.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde hat die Lehrerin/der Lehrer dafür gesorgt, dass wir Schülerinnen und Schüler über das Unterrichtsthema diskutieren bzw. uns austauschen konnten.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde haben wir Schülerinnen und Schüler uns gut über das Thema bzw. die Unterrichtsinhalte ausgetauscht.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde haben wir wichtige Arbeitsergebnisse so festgehalten (z. B. aufgeschrieben), dass wir sie auch nacharbeiten können.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde gab es zusätzliche Aufgaben oder Material, für die, die schneller oder langsamer lernen.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde ist die Lehrerin/der Lehrer gut auf diejenigen eingegangen, die Hilfe brauchten oder Fragen hatten.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde ging es um Aufgaben/Probleme, die wir im Beruf/in der Praxis lösen müssen.</t>
+  </si>
+  <si>
+    <t>In der verg. Unterrichtsst. haben wir uns Informationen zur Lösung einer Aufgabe beschafft, konkrete Lösungen gesucht/gefunden, vorher erreichte Arbeitsergebnisse zur Lösung der Aufgabe kontrolliert oder auf eine neue Aufgabe übertragen/ angewandt.</t>
+  </si>
+  <si>
+    <t>In der vergangenen Unterrichtsstunde ist beim Unterricht etwas Konkretes herausgekommen (z. B. ein Arbeitsplan, eine Zeichnung, ein Fall, ein Lösungsvorschlag, ein Werkstück) bzw. sind wir bei der Erarbeitung von etwas Konkretem vorangekommen.</t>
+  </si>
+  <si>
+    <t>Hier können Sie noch zusätzliche Angaben machen, Kritik äußern oder Anregungen loswerden.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +235,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -628,8 +584,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -984,229 +941,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="125.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="183.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
+      <c r="A12" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
+      <c r="A16" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
+      <c r="A18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
+      <c r="A19" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="A20" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
+      <c r="A21" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
+      <c r="A22" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
+      <c r="A23" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
+      <c r="A24" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtutt\Documents\Code\PollingSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FCFB12-AC33-4DEF-8868-0BAC7A7EB917}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686E0141-8EF9-48D4-82D3-9A32305B3E00}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -43,9 +43,6 @@
     <t>In der vergangenen Unterrichtsstunde haben wir intensiv am Unterrichtsthema gearbeitet.</t>
   </si>
   <si>
-    <t>n der vergangenen Unterrichtsstunde konnten wir die Aufgaben in der zur Verfügung stehenden Zeit lösen.</t>
-  </si>
-  <si>
     <t>In der vergangenen Unterrichtsstunde haben wir einzeln oder mit einem Partner, in der Gruppe oder im Gespräch mit allen Schülerinnen und Schülern so gearbeitet, dass wir gut lernen konnten.</t>
   </si>
   <si>
@@ -94,7 +91,7 @@
     <t>In der vergangenen Unterrichtsstunde ist beim Unterricht etwas Konkretes herausgekommen (z. B. ein Arbeitsplan, eine Zeichnung, ein Fall, ein Lösungsvorschlag, ein Werkstück) bzw. sind wir bei der Erarbeitung von etwas Konkretem vorangekommen.</t>
   </si>
   <si>
-    <t>Hier können Sie noch zusätzliche Angaben machen, Kritik äußern oder Anregungen loswerden.</t>
+    <t>In der vergangenen Unterrichtsstunde konnten wir die Aufgaben in der zur Verfügung stehenden Zeit lösen.</t>
   </si>
 </sst>
 </file>
@@ -942,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,92 +987,87 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
